--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3157442.021198879</v>
+        <v>3232971.690863683</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142.958392266162</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>215.9937103329034</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>49.82707527435119</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>131.8808934717672</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>401.3550844723781</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>91.54126986570871</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017905</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>188.952812768802</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>111.0285509902379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>99.90187484148892</v>
       </c>
       <c r="U10" t="n">
-        <v>95.33023562355996</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>90.96254654035575</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.63568088824909</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>70.52850687357333</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>128.5319531861585</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>59.04395605284535</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.2425576766694</v>
+        <v>98.17974700771916</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>233.2197440799276</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.1617994657266</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>43.8240492506561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>20.50993243674287</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>22.58147825544476</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.0785952498008</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.4042217342639</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3556,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>95.05867323514268</v>
       </c>
       <c r="W40" t="n">
-        <v>138.4562295784665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>174.5090176486996</v>
       </c>
       <c r="W43" t="n">
-        <v>255.956793991373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>74.59963607498555</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>101.4169444883358</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>1345.301239238533</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y2" t="n">
-        <v>1345.301239238533</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.5384547146243</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C4" t="n">
-        <v>240.6022717867174</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>240.6022717867174</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>240.6022717867174</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>240.6022717867174</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>240.6022717867174</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.549250954101</v>
+        <v>2088.375092014473</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1719.412575074061</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406939</v>
+        <v>1361.146876467311</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>975.3586238690666</v>
       </c>
       <c r="F5" t="n">
-        <v>786.546878019087</v>
+        <v>564.3727190794591</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>146.408910977646</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018223</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>705.5516739134498</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>557.4050153476337</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635872</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1613.008350354134</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1227.220097755889</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>816.2341929662819</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>398.2703848644687</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1971.274048960884</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750363</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>404.5276295785111</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5036,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>378.1030765138943</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>983.329485121187</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>983.329485121187</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>693.9123150842264</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.0010960824696</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>565.0010960824696</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>414.8844566701339</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>266.9713630877408</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>120.0814155898304</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259998</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752259998</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.0010960824696</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5512,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.9901170420334</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C19" t="n">
-        <v>524.0539341141265</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D19" t="n">
-        <v>373.9372947017907</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>373.9372947017907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>227.0473472038804</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>227.0473472038804</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="W19" t="n">
-        <v>874.6385818722731</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X19" t="n">
-        <v>874.6385818722731</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.6385818722731</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="20">
@@ -5747,46 +5749,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>4356.2492313496</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>4187.313048421694</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1340.085404217832</v>
+        <v>4761.683111390334</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>4537.89769617984</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>4537.89769617984</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>4537.89769617984</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>4537.89769617984</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>4537.89769617984</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>4537.89769617984</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2875.650209546131</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>3644.018355938593</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1152.265668049094</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1152.265668049094</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>862.8484980121334</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>634.8589471141161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6217,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3808.667323346199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3808.667323346199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3753.95843499698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491671</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4326.074044281177</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4036.656874244216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3808.667323346199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3808.667323346199</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W31" t="n">
-        <v>965.6009052722087</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X31" t="n">
-        <v>965.6009052722087</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.8083261286786</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4072.250396089493</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C34" t="n">
-        <v>4072.250396089493</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.133756677158</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094764</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4840.137469542835</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4616.35205433234</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4616.35205433234</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V34" t="n">
-        <v>4361.667566126453</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W34" t="n">
-        <v>4072.250396089493</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X34" t="n">
-        <v>4072.250396089493</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y34" t="n">
-        <v>4072.250396089493</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,22 +6934,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>217.8274164443908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>217.8274164443908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>585.5099430858313</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3079.144181652285</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3583.957287518664</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.0827848727882</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C40" t="n">
-        <v>507.0827848727882</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D40" t="n">
-        <v>507.0827848727882</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7327,7 +7329,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>874.927113122792</v>
+        <v>1113.768769917781</v>
       </c>
       <c r="W40" t="n">
-        <v>735.0723357708056</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="X40" t="n">
-        <v>507.0827848727882</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.0827848727882</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,13 +7447,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.6944526764913</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7582697485844</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293934</v>
+        <v>1322.644535559216</v>
       </c>
       <c r="W43" t="n">
-        <v>674.6944526764913</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="X43" t="n">
-        <v>674.6944526764913</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.6944526764913</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7633,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7664,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,13 +7684,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3400.776574865201</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3708.096708145163</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>4037.959335809196</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>888.7825740722753</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>634.0980858663885</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>634.0980858663885</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>634.0980858663885</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050813</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>91.23759968302119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>18.73797368291383</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>52.49733361305249</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>104.8749102765736</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11312,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>253.7371603504723</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.280234771565603</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2748058582216</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>143.8578875751285</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>155.1811485154638</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.38187518137758</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>193.0936872709827</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>40.67825230693387</v>
+        <v>99.74106297588409</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>53.01760831864979</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>94.45367355248575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>64.30500338171902</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>242.6989490859349</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.4108775468604</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.5561650683833</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>29.50960663327221</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.0789700886853</v>
       </c>
       <c r="W40" t="n">
-        <v>148.0667687581245</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>77.62862567512838</v>
       </c>
       <c r="W43" t="n">
-        <v>30.56620434521801</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>211.6377163235918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>117.167708863759</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.4015541052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26430,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>-149432.2302151391</v>
       </c>
       <c r="C6" t="n">
-        <v>440535.6489994054</v>
+        <v>440535.6489994057</v>
       </c>
       <c r="D6" t="n">
         <v>440535.6489994054</v>
       </c>
       <c r="E6" t="n">
-        <v>18298.49357618988</v>
+        <v>18298.49357618931</v>
       </c>
       <c r="F6" t="n">
-        <v>543458.5300530863</v>
+        <v>543458.530053086</v>
       </c>
       <c r="G6" t="n">
         <v>543458.5300530861</v>
       </c>
       <c r="H6" t="n">
+        <v>543458.5300530856</v>
+      </c>
+      <c r="I6" t="n">
+        <v>543458.5300530855</v>
+      </c>
+      <c r="J6" t="n">
+        <v>367035.3108604932</v>
+      </c>
+      <c r="K6" t="n">
+        <v>543458.530053086</v>
+      </c>
+      <c r="L6" t="n">
         <v>543458.5300530861</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>408657.5148192486</v>
+      </c>
+      <c r="N6" t="n">
+        <v>543458.5300530859</v>
+      </c>
+      <c r="O6" t="n">
         <v>543458.5300530861</v>
       </c>
-      <c r="J6" t="n">
-        <v>367035.310860493</v>
-      </c>
-      <c r="K6" t="n">
-        <v>543458.5300530859</v>
-      </c>
-      <c r="L6" t="n">
-        <v>543458.5300530859</v>
-      </c>
-      <c r="M6" t="n">
-        <v>408657.5148192485</v>
-      </c>
-      <c r="N6" t="n">
-        <v>543458.5300530858</v>
-      </c>
-      <c r="O6" t="n">
-        <v>543458.530053086</v>
-      </c>
       <c r="P6" t="n">
-        <v>543458.5300530855</v>
+        <v>543458.5300530856</v>
       </c>
     </row>
   </sheetData>
@@ -26735,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>239.7754493973185</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>153.7373903455656</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>106.343813567444</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>86.7037598803276</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42908554841694</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>232.3815028986484</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>6.771212764859751</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>134.9699599955552</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>216.723707479897</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>125.1332306165954</v>
       </c>
       <c r="U10" t="n">
-        <v>190.9516386184178</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33022,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>241.8130382709604</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8313886144385</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>259.5907485445772</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>354.132615232598</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>408.1301468599572</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37633,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>536.1008625915805</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3232971.690863683</v>
+        <v>3225954.675971972</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.958392266162</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>181.1310437492944</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>146.2546375217499</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.8808934717672</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>91.54126986570871</v>
+        <v>32.56842626327234</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>51.185716739424</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.35153719005456</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>66.58496257157206</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>188.952812768802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.90187484148892</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>95.5122194908961</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>70.52850687357333</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2022,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>59.04395605284535</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.17974700771916</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002185</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>22.58147825544476</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>95.05867323514268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>174.5090176486996</v>
+        <v>143.2925104849742</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>101.4169444883358</v>
+        <v>127.6176159584065</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1391.943488066779</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1033.677789460029</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>647.8895368617846</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>236.903632072177</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.744059709404</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1893.744059709404</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
         <v>211.6913543878343</v>
@@ -4482,13 +4482,13 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>580.3970271137575</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2088.375092014473</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.412575074061</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="D5" t="n">
-        <v>1361.146876467311</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="E5" t="n">
-        <v>975.3586238690666</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="F5" t="n">
-        <v>564.3727190794591</v>
+        <v>100.7637861477052</v>
       </c>
       <c r="G5" t="n">
-        <v>146.408910977646</v>
+        <v>86.84038208629612</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.514423990285</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.375092014473</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>400.4487670819043</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>252.5356734995112</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>105.6457260016008</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>705.5516739134498</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>557.4050153476337</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1971.274048960884</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1971.274048960884</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1613.008350354134</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1227.220097755889</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>816.2341929662819</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>398.2703848644687</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960884</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960884</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1971.274048960884</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1971.274048960884</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.776412546148</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C13" t="n">
-        <v>237.776412546148</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D13" t="n">
-        <v>237.776412546148</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1402.439281173159</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1178.653865962665</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1178.653865962665</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>923.9693777567777</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>923.9693777567777</v>
       </c>
       <c r="X13" t="n">
-        <v>237.776412546148</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.776412546148</v>
+        <v>695.9798268587604</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,28 +5533,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>860.7301020851612</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>1150.147272122122</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W19" t="n">
-        <v>860.7301020851612</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>860.7301020851612</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>860.7301020851612</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4356.2492313496</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4187.313048421694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4761.683111390334</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4537.89769617984</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4537.89769617984</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4537.89769617984</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4537.89769617984</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4537.89769617984</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4537.89769617984</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,13 +6165,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598086</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,19 +6402,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,7 +6490,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609671</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550802</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>441.9005583181196</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201023</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201023</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>852.117539127393</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>562.7003690904323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7153,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1113.768769917781</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>824.3515998808206</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>824.3515998808206</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4452354807079</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
         <v>265.3924131404652</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.644535559216</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>1033.227365522255</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>805.237814624238</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>584.4452354807079</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>496.665036439558</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>496.665036439558</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.223678370532</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>96.03744927814705</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504513</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.280234771565603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.4085904927071</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>155.1811485154638</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>193.0936872709827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>99.74106297588409</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338477</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.30500338171902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>229.5561650683833</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.0789700886853</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>77.62862567512838</v>
+        <v>108.8451328388538</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.167708863759</v>
+        <v>90.96703739368824</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
         <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="K2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,13 +26438,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-149432.2302151391</v>
       </c>
       <c r="C6" t="n">
-        <v>440535.6489994057</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
         <v>440535.6489994054</v>
       </c>
       <c r="E6" t="n">
-        <v>18298.49357618931</v>
+        <v>17323.90231646809</v>
       </c>
       <c r="F6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933643</v>
       </c>
       <c r="G6" t="n">
-        <v>543458.5300530861</v>
+        <v>542483.9387933637</v>
       </c>
       <c r="H6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="I6" t="n">
-        <v>543458.5300530855</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="J6" t="n">
-        <v>367035.3108604932</v>
+        <v>366060.7196007711</v>
       </c>
       <c r="K6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="L6" t="n">
-        <v>543458.5300530861</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="M6" t="n">
-        <v>408657.5148192486</v>
+        <v>407682.9235595269</v>
       </c>
       <c r="N6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.938793364</v>
       </c>
       <c r="O6" t="n">
-        <v>543458.5300530861</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="P6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.9387933642</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.7754493973185</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>232.6531262715006</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>79.45501786728724</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.7037598803276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>232.3815028986484</v>
+        <v>291.3543465010848</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>116.1240855196269</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.771212764859751</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>134.9699599955552</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>125.1332306165954</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>179.4797055491932</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>429.2320226761599</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710908</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225954.675971972</v>
+        <v>3230893.938821003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>181.1310437492944</v>
+        <v>124.5000082578595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>70.26541886851864</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>146.2546375217499</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>32.56842626327234</v>
+        <v>280.6371100184111</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>51.185716739424</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.58496257157206</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>143.5477617104935</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>72.65793777463476</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>58.67448574982277</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>43.79590455125508</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>95.5122194908961</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.1854691670925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>17.19837049413456</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2787299119459</v>
+        <v>144.0544470549667</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.6176159584065</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1760.906005007191</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>1391.943488066779</v>
+        <v>1488.206397918725</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.677789460029</v>
+        <v>1129.940699311975</v>
       </c>
       <c r="E2" t="n">
-        <v>647.8895368617846</v>
+        <v>744.1524467137303</v>
       </c>
       <c r="F2" t="n">
-        <v>236.903632072177</v>
+        <v>333.1665419241228</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2147.505845071313</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>657.1538136321732</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X4" t="n">
-        <v>580.3970271137575</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.6044479702274</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4555,13 +4555,13 @@
         <v>511.7496909373128</v>
       </c>
       <c r="F5" t="n">
-        <v>100.7637861477052</v>
+        <v>504.8041901881093</v>
       </c>
       <c r="G5" t="n">
-        <v>86.84038208629612</v>
+        <v>490.8807861267002</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>400.4487670819043</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>252.5356734995112</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>105.6457260016008</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2552.151351916713</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2333.516684888776</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>639.4449077370028</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>639.4449077370028</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5080,10 +5080,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5129,7 +5129,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9798268587604</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0436439308535</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>456.5206480638858</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>309.6307005659754</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>141.455378885796</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>141.455378885796</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1402.439281173159</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1178.653865962665</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1178.653865962665</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>923.9693777567777</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>923.9693777567777</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X13" t="n">
-        <v>695.9798268587604</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.9798268587604</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,19 +5463,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383447</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6174,10 +6174,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>226.1237742465551</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441654</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6897,7 +6897,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7128,13 +7128,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7356,25 +7356,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7414,10 +7414,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7490,13 +7490,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.17636097712</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504513</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>66.62334091301692</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>102.4085904927071</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.3375291694985</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>129.2355921524346</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43092547709122</v>
+        <v>81.65520833407044</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388538</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.96703739368824</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541045</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26484,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994054</v>
+        <v>440535.6489994052</v>
       </c>
       <c r="E6" t="n">
-        <v>17323.90231646809</v>
+        <v>18201.03445021746</v>
       </c>
       <c r="F6" t="n">
-        <v>542483.9387933643</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="G6" t="n">
-        <v>542483.9387933637</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="H6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.070927114</v>
       </c>
       <c r="I6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.070927114</v>
       </c>
       <c r="J6" t="n">
-        <v>366060.7196007711</v>
+        <v>366937.8517345205</v>
       </c>
       <c r="K6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="L6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271134</v>
       </c>
       <c r="M6" t="n">
-        <v>407682.9235595269</v>
+        <v>408560.0556932761</v>
       </c>
       <c r="N6" t="n">
-        <v>542483.938793364</v>
+        <v>543361.0709271134</v>
       </c>
       <c r="O6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271135</v>
       </c>
       <c r="P6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271135</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,13 +26749,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>232.6531262715006</v>
+        <v>289.2841617629355</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>141.8801200815003</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>79.45501786728724</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>291.3543465010848</v>
+        <v>43.28566274594607</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>116.1240855196269</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>316.1488790919085</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>30.86795109847802</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>179.4797055491932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>227.8485125867682</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
